--- a/Code/Results/Cases/Case_3_172/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_172/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.6396164791577</v>
+        <v>16.77185617551796</v>
       </c>
       <c r="C2">
-        <v>14.15093676498643</v>
+        <v>11.19200448434655</v>
       </c>
       <c r="D2">
-        <v>4.367727172660548</v>
+        <v>4.564713903783011</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>17.18547896438484</v>
+        <v>22.73933556382128</v>
       </c>
       <c r="G2">
-        <v>2.065947766902453</v>
+        <v>3.619270867593013</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11.71791751147397</v>
+        <v>20.70275037715229</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.104106854861016</v>
+        <v>10.65855822886157</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.28719248042285</v>
+        <v>20.3287034907991</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.99982915861897</v>
+        <v>16.06047371218243</v>
       </c>
       <c r="C3">
-        <v>13.51755636502015</v>
+        <v>10.92735726418366</v>
       </c>
       <c r="D3">
-        <v>4.224059819683509</v>
+        <v>4.517223184870461</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>16.72723725509208</v>
+        <v>22.78407899319903</v>
       </c>
       <c r="G3">
-        <v>2.071656542996459</v>
+        <v>3.621419518540736</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.04046011370997</v>
+        <v>20.85948178960559</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.810380313052594</v>
+        <v>10.63083551722679</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.19670554045875</v>
+        <v>20.42365773763223</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.93343046328187</v>
+        <v>15.60766123320989</v>
       </c>
       <c r="C4">
-        <v>13.11373692276852</v>
+        <v>10.7610886995079</v>
       </c>
       <c r="D4">
-        <v>4.133271058735907</v>
+        <v>4.487643017685982</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16.46519734494203</v>
+        <v>22.820267302597</v>
       </c>
       <c r="G4">
-        <v>2.075265698984824</v>
+        <v>3.622808484356736</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>12.25461075707714</v>
+        <v>20.96157876875253</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.629533047236549</v>
+        <v>10.61598397171553</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.16148858507503</v>
+        <v>20.48854784879627</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.4838049342397</v>
+        <v>15.41934539451825</v>
       </c>
       <c r="C5">
-        <v>12.94557894198421</v>
+        <v>10.69245786991439</v>
       </c>
       <c r="D5">
-        <v>4.09566216241645</v>
+        <v>4.475490345469015</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>16.36331887053926</v>
+        <v>22.83719548963155</v>
       </c>
       <c r="G5">
-        <v>2.076763323058767</v>
+        <v>3.623392078394731</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>12.34567862502956</v>
+        <v>21.00465721136658</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.555813554951982</v>
+        <v>10.61048190725094</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.15204081534192</v>
+        <v>20.51663932561305</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.40823310399975</v>
+        <v>15.38785428706098</v>
       </c>
       <c r="C6">
-        <v>12.91744411410884</v>
+        <v>10.68101116774348</v>
       </c>
       <c r="D6">
-        <v>4.089381419076062</v>
+        <v>4.473466667363621</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>16.34669914259807</v>
+        <v>22.84013780616319</v>
       </c>
       <c r="G6">
-        <v>2.077013645468223</v>
+        <v>3.623490047132863</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>12.36102311450324</v>
+        <v>21.01189929065758</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.543574275009949</v>
+        <v>10.60960163180205</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.1507616986479</v>
+        <v>20.52140319577031</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.92742773647875</v>
+        <v>15.6051365527722</v>
       </c>
       <c r="C7">
-        <v>13.11148343256101</v>
+        <v>10.76016656227362</v>
       </c>
       <c r="D7">
-        <v>4.132766278304079</v>
+        <v>4.487479511731964</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>16.4638034730863</v>
+        <v>22.82048678549992</v>
       </c>
       <c r="G7">
-        <v>2.07528578676123</v>
+        <v>3.622816283657953</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>12.25582385442819</v>
+        <v>20.96215377680406</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.628538790843292</v>
+        <v>10.61590753646051</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.16134160606551</v>
+        <v>20.48892003783843</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.08652922169697</v>
+        <v>16.53002946146266</v>
       </c>
       <c r="C8">
-        <v>13.93572855521313</v>
+        <v>11.10158049795088</v>
       </c>
       <c r="D8">
-        <v>4.318745856363984</v>
+        <v>4.548430746672983</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>17.02350147171406</v>
+        <v>22.75294828276099</v>
       </c>
       <c r="G8">
-        <v>2.067895028049194</v>
+        <v>3.619997293125181</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.82562624498077</v>
+        <v>20.75557365964006</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.002991983162273</v>
+        <v>10.64855173596979</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.25164799136736</v>
+        <v>20.3600714617722</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.85185182856643</v>
+        <v>18.20772120234537</v>
       </c>
       <c r="C9">
-        <v>15.428175200703</v>
+        <v>11.73811831582631</v>
       </c>
       <c r="D9">
-        <v>4.66162405472098</v>
+        <v>4.664304686360434</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>18.2713833592092</v>
+        <v>22.69006296868202</v>
       </c>
       <c r="G9">
-        <v>2.054191665154424</v>
+        <v>3.615019615772198</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11.12285155438716</v>
+        <v>20.39705206144924</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.729334549430655</v>
+        <v>10.72957498388209</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.59871200702282</v>
+        <v>20.16003486282868</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.33828033080133</v>
+        <v>19.34739587456026</v>
       </c>
       <c r="C10">
-        <v>16.44335256995555</v>
+        <v>12.18194724995736</v>
       </c>
       <c r="D10">
-        <v>4.898653308168884</v>
+        <v>4.746801354076205</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>19.27503143687071</v>
+        <v>22.68671672935099</v>
       </c>
       <c r="G10">
-        <v>2.044553534033965</v>
+        <v>3.611694428238309</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10.7133374738812</v>
+        <v>20.16212851996731</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.253528882171041</v>
+        <v>10.79915465103146</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.96758537604709</v>
+        <v>20.04563918953278</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.40995768791911</v>
+        <v>19.8440524821722</v>
       </c>
       <c r="C11">
-        <v>16.88669148066084</v>
+        <v>12.37798326763481</v>
       </c>
       <c r="D11">
-        <v>5.002993213411494</v>
+        <v>4.783674719404924</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>19.74937257558106</v>
+        <v>22.69456337185991</v>
       </c>
       <c r="G11">
-        <v>2.040249858621305</v>
+        <v>3.610253019649851</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10.55573871637402</v>
+        <v>20.06146195018598</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.489201028276248</v>
+        <v>10.83291314048009</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.16189312058908</v>
+        <v>20.00076862163751</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.80734336118741</v>
+        <v>20.02888115820239</v>
       </c>
       <c r="C12">
-        <v>17.05186813003315</v>
+        <v>12.45132165806471</v>
       </c>
       <c r="D12">
-        <v>5.041985600317365</v>
+        <v>4.797536676528511</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>19.93146330584022</v>
+        <v>22.69888438633383</v>
       </c>
       <c r="G12">
-        <v>2.038630683273033</v>
+        <v>3.609717381255769</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10.50071359963592</v>
+        <v>20.02423619242999</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.577996031225203</v>
+        <v>10.84599216176522</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.23940057661321</v>
+        <v>19.98481581573049</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.72213263445023</v>
+        <v>19.98922088156001</v>
       </c>
       <c r="C13">
-        <v>17.01641538733177</v>
+        <v>12.43556757763469</v>
       </c>
       <c r="D13">
-        <v>5.033611215283814</v>
+        <v>4.794555866106098</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>19.89213831617113</v>
+        <v>22.69789373201473</v>
       </c>
       <c r="G13">
-        <v>2.03897895126275</v>
+        <v>3.609832288108359</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10.51234825398085</v>
+        <v>20.0322135971032</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.558893052332969</v>
+        <v>10.84316234562427</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.22253163863386</v>
+        <v>19.98820521946677</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.44281926569509</v>
+        <v>19.85932404767906</v>
       </c>
       <c r="C14">
-        <v>16.90033513499959</v>
+        <v>12.38403510964624</v>
       </c>
       <c r="D14">
-        <v>5.006211628922604</v>
+        <v>4.784817218431734</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>19.76430428872176</v>
+        <v>22.69489180742745</v>
       </c>
       <c r="G14">
-        <v>2.04011644346782</v>
+        <v>3.610208748395078</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10.55111527021783</v>
+        <v>20.05838142143293</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.496515479793372</v>
+        <v>10.83398328328641</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.16819039739439</v>
+        <v>19.99943531361058</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.27063652954245</v>
+        <v>19.77933296050298</v>
       </c>
       <c r="C15">
-        <v>16.82887896246218</v>
+        <v>12.35235177884556</v>
       </c>
       <c r="D15">
-        <v>4.989360551249748</v>
+        <v>4.778838632903069</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>19.68632125137042</v>
+        <v>22.69322884982234</v>
       </c>
       <c r="G15">
-        <v>2.040814528575823</v>
+        <v>3.610440666924306</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>10.57548390772362</v>
+        <v>20.07452654278991</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.458247713836933</v>
+        <v>10.82839908475334</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.13541939758456</v>
+        <v>20.00644956844341</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.26705730590907</v>
+        <v>19.31448985257855</v>
       </c>
       <c r="C16">
-        <v>16.414003037156</v>
+        <v>12.16901320662301</v>
       </c>
       <c r="D16">
-        <v>4.891762726245499</v>
+        <v>4.744377811671203</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>19.24438204284833</v>
+        <v>22.68639270603088</v>
       </c>
       <c r="G16">
-        <v>2.044836323929589</v>
+        <v>3.611790056683495</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>10.72425817447511</v>
+        <v>20.16883233384398</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.23806670081413</v>
+        <v>10.7969902105655</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.95543059759201</v>
+        <v>20.04871651721334</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.63625257075959</v>
+        <v>19.02365844987236</v>
       </c>
       <c r="C17">
-        <v>16.15471901251359</v>
+        <v>12.05499990635304</v>
       </c>
       <c r="D17">
-        <v>4.830983243744571</v>
+        <v>4.723064445431404</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>18.97775355901899</v>
+        <v>22.68460082807821</v>
       </c>
       <c r="G17">
-        <v>2.047323506004084</v>
+        <v>3.6126360717826</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10.82323337306871</v>
+        <v>20.22827608331098</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.102241187653146</v>
+        <v>10.77825619341188</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.8518904289863</v>
+        <v>20.0764876716072</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.26783153000381</v>
+        <v>18.85433466166746</v>
       </c>
       <c r="C18">
-        <v>16.00384919306596</v>
+        <v>11.98887340075571</v>
       </c>
       <c r="D18">
-        <v>4.795697225026366</v>
+        <v>4.710744338112125</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>18.8260739112085</v>
+        <v>22.6844519938284</v>
       </c>
       <c r="G18">
-        <v>2.048761737983964</v>
+        <v>3.613129385427426</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10.88282678239524</v>
+        <v>20.26305007813264</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.023857831778074</v>
+        <v>10.76767961851546</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.79482601086085</v>
+        <v>20.09313519639147</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.14212567870711</v>
+        <v>18.79665695011903</v>
       </c>
       <c r="C19">
-        <v>15.95247078683663</v>
+        <v>11.96639148635499</v>
       </c>
       <c r="D19">
-        <v>4.783694366331397</v>
+        <v>4.706562663782811</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>18.77500885265641</v>
+        <v>22.68455294956487</v>
       </c>
       <c r="G19">
-        <v>2.049250047666098</v>
+        <v>3.613297566667472</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>10.90344669096181</v>
+        <v>20.27492409534609</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.997275554470017</v>
+        <v>10.76413292560245</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.77592865278704</v>
+        <v>20.09888732743122</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.70398150358151</v>
+        <v>19.05483048887303</v>
       </c>
       <c r="C20">
-        <v>16.18250037081878</v>
+        <v>12.06719404147556</v>
       </c>
       <c r="D20">
-        <v>4.837487332162762</v>
+        <v>4.725339677515036</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>19.0059636246203</v>
+        <v>22.68470028967712</v>
       </c>
       <c r="G20">
-        <v>2.047057954912126</v>
+        <v>3.612545318140746</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>10.81241777389674</v>
+        <v>20.22188778301895</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.116727351420133</v>
+        <v>10.78022994580971</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.86265394057972</v>
+        <v>20.07346154013379</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.52508841837239</v>
+        <v>19.89756675048416</v>
       </c>
       <c r="C21">
-        <v>16.93450449220818</v>
+        <v>12.39919616696612</v>
       </c>
       <c r="D21">
-        <v>5.014273758003383</v>
+        <v>4.787680496510363</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>19.80178590262315</v>
+        <v>22.69573690537129</v>
       </c>
       <c r="G21">
-        <v>2.039782057579668</v>
+        <v>3.610097896693592</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>10.53959766389717</v>
+        <v>20.05067099815607</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.514849796905327</v>
+        <v>10.83667144071622</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.18404431781737</v>
+        <v>19.99610851151917</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.66617351873968</v>
+        <v>20.42939290678308</v>
       </c>
       <c r="C22">
-        <v>17.41019558961662</v>
+        <v>12.61093360476079</v>
       </c>
       <c r="D22">
-        <v>5.126783595982895</v>
+        <v>4.827830919106247</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>20.33625613048227</v>
+        <v>22.71081671168256</v>
       </c>
       <c r="G22">
-        <v>2.03508767187243</v>
+        <v>3.608557746839216</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>10.38870531393293</v>
+        <v>19.94398609955871</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.772414752595555</v>
+        <v>10.87527734641153</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.41702435679083</v>
+        <v>19.951611612752</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.06161181968285</v>
+        <v>20.14731368190787</v>
       </c>
       <c r="C23">
-        <v>17.15776773494355</v>
+        <v>12.4984216249335</v>
       </c>
       <c r="D23">
-        <v>5.067017245689677</v>
+        <v>4.806458403814156</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>20.04971165472247</v>
+        <v>22.70204818047834</v>
       </c>
       <c r="G23">
-        <v>2.037587966070062</v>
+        <v>3.609374337430257</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>10.46654259623996</v>
+        <v>20.00044769299154</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.635201247146412</v>
+        <v>10.85451802172268</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.29054649194518</v>
+        <v>19.97480364452612</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.67337921161166</v>
+        <v>19.04074420767801</v>
       </c>
       <c r="C24">
-        <v>16.16994603375936</v>
+        <v>12.06168287159734</v>
       </c>
       <c r="D24">
-        <v>4.834547901049297</v>
+        <v>4.724311252516001</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>18.99320483658632</v>
+        <v>22.68465257795181</v>
       </c>
       <c r="G24">
-        <v>2.047177984571811</v>
+        <v>3.612586326276469</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.81729916297506</v>
+        <v>20.22477406791016</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.110179073276791</v>
+        <v>10.77933700793666</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.85778009675642</v>
+        <v>20.07482753184679</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.88282800652299</v>
+        <v>17.76955342246793</v>
       </c>
       <c r="C25">
-        <v>15.0383687463407</v>
+        <v>11.56985146873197</v>
       </c>
       <c r="D25">
-        <v>4.571380352829576</v>
+        <v>4.633391455367724</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>17.91817120901338</v>
+        <v>22.69957569010398</v>
       </c>
       <c r="G25">
-        <v>2.05781937236655</v>
+        <v>3.616307663566808</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.29590259048535</v>
+        <v>20.48904664897264</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.534208087071848</v>
+        <v>10.70586589240257</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.48548780504694</v>
+        <v>20.20846424334196</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_172/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_172/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.77185617551796</v>
+        <v>24.63961647915766</v>
       </c>
       <c r="C2">
-        <v>11.19200448434655</v>
+        <v>14.15093676498665</v>
       </c>
       <c r="D2">
-        <v>4.564713903783011</v>
+        <v>4.367727172660542</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22.73933556382128</v>
+        <v>17.18547896438489</v>
       </c>
       <c r="G2">
-        <v>3.619270867593013</v>
+        <v>2.06594776690272</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>20.70275037715229</v>
+        <v>11.71791751147406</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.65855822886157</v>
+        <v>8.104106854860992</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.3287034907991</v>
+        <v>13.28719248042287</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.06047371218243</v>
+        <v>22.99982915861901</v>
       </c>
       <c r="C3">
-        <v>10.92735726418366</v>
+        <v>13.51755636502026</v>
       </c>
       <c r="D3">
-        <v>4.517223184870461</v>
+        <v>4.224059819683492</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22.78407899319903</v>
+        <v>16.72723725509196</v>
       </c>
       <c r="G3">
-        <v>3.621419518540736</v>
+        <v>2.071656542996728</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.85948178960559</v>
+        <v>12.04046011370975</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.63083551722679</v>
+        <v>7.810380313052526</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>20.42365773763223</v>
+        <v>13.19670554045856</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.60766123320989</v>
+        <v>21.93343046328188</v>
       </c>
       <c r="C4">
-        <v>10.7610886995079</v>
+        <v>13.11373692276867</v>
       </c>
       <c r="D4">
-        <v>4.487643017685982</v>
+        <v>4.133271058735902</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.820267302597</v>
+        <v>16.46519734494202</v>
       </c>
       <c r="G4">
-        <v>3.622808484356736</v>
+        <v>2.075265698984824</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>20.96157876875253</v>
+        <v>12.25461075707723</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.61598397171553</v>
+        <v>7.629533047236515</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.48854784879627</v>
+        <v>13.16148858507502</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.41934539451825</v>
+        <v>21.48380493423967</v>
       </c>
       <c r="C5">
-        <v>10.69245786991439</v>
+        <v>12.94557894198428</v>
       </c>
       <c r="D5">
-        <v>4.475490345469015</v>
+        <v>4.095662162416488</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>22.83719548963155</v>
+        <v>16.36331887053929</v>
       </c>
       <c r="G5">
-        <v>3.623392078394731</v>
+        <v>2.07676332305877</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>21.00465721136658</v>
+        <v>12.34567862502966</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.61048190725094</v>
+        <v>7.555813554951972</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.51663932561305</v>
+        <v>13.15204081534196</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.38785428706098</v>
+        <v>21.40823310399979</v>
       </c>
       <c r="C6">
-        <v>10.68101116774348</v>
+        <v>12.91744411410864</v>
       </c>
       <c r="D6">
-        <v>4.473466667363621</v>
+        <v>4.089381419076059</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>22.84013780616319</v>
+        <v>16.34669914259812</v>
       </c>
       <c r="G6">
-        <v>3.623490047132863</v>
+        <v>2.077013645468492</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>21.01189929065758</v>
+        <v>12.36102311450323</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.60960163180205</v>
+        <v>7.54357427500994</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>20.52140319577031</v>
+        <v>13.15076169864796</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.6051365527722</v>
+        <v>21.92742773647873</v>
       </c>
       <c r="C7">
-        <v>10.76016656227362</v>
+        <v>13.11148343256096</v>
       </c>
       <c r="D7">
-        <v>4.487479511731964</v>
+        <v>4.132766278304007</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22.82048678549992</v>
+        <v>16.46380347308632</v>
       </c>
       <c r="G7">
-        <v>3.622816283657953</v>
+        <v>2.075285786761229</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20.96215377680406</v>
+        <v>12.25582385442815</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.61590753646051</v>
+        <v>7.62853879084324</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.48892003783843</v>
+        <v>13.16134160606554</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.53002946146266</v>
+        <v>24.08652922169703</v>
       </c>
       <c r="C8">
-        <v>11.10158049795088</v>
+        <v>13.93572855521318</v>
       </c>
       <c r="D8">
-        <v>4.548430746672983</v>
+        <v>4.318745856363937</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>22.75294828276099</v>
+        <v>17.02350147171401</v>
       </c>
       <c r="G8">
-        <v>3.619997293125181</v>
+        <v>2.067895028049328</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20.75557365964006</v>
+        <v>11.82562624498065</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.64855173596979</v>
+        <v>8.002991983162302</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.3600714617722</v>
+        <v>13.25164799136727</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.20772120234537</v>
+        <v>27.85185182856641</v>
       </c>
       <c r="C9">
-        <v>11.73811831582631</v>
+        <v>15.42817520070311</v>
       </c>
       <c r="D9">
-        <v>4.664304686360434</v>
+        <v>4.66162405472106</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>22.69006296868202</v>
+        <v>18.27138335920923</v>
       </c>
       <c r="G9">
-        <v>3.615019615772198</v>
+        <v>2.054191665154157</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.39705206144924</v>
+        <v>11.12285155438722</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.72957498388209</v>
+        <v>8.729334549430739</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.16003486282868</v>
+        <v>13.59871200702286</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.34739587456026</v>
+        <v>30.33828033080133</v>
       </c>
       <c r="C10">
-        <v>12.18194724995736</v>
+        <v>16.44335256995558</v>
       </c>
       <c r="D10">
-        <v>4.746801354076205</v>
+        <v>4.898653308168972</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.68671672935099</v>
+        <v>19.27503143687068</v>
       </c>
       <c r="G10">
-        <v>3.611694428238309</v>
+        <v>2.044553534033832</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20.16212851996731</v>
+        <v>10.71333747388114</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.79915465103146</v>
+        <v>9.253528882171061</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.04563918953278</v>
+        <v>13.96758537604707</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.8440524821722</v>
+        <v>31.40995768791909</v>
       </c>
       <c r="C11">
-        <v>12.37798326763481</v>
+        <v>16.88669148066092</v>
       </c>
       <c r="D11">
-        <v>4.783674719404924</v>
+        <v>5.002993213411473</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.69456337185991</v>
+        <v>19.74937257558108</v>
       </c>
       <c r="G11">
-        <v>3.610253019649851</v>
+        <v>2.040249858621171</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>20.06146195018598</v>
+        <v>10.55573871637407</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.83291314048009</v>
+        <v>9.489201028276263</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.00076862163751</v>
+        <v>14.16189312058907</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.02888115820239</v>
+        <v>31.80734336118744</v>
       </c>
       <c r="C12">
-        <v>12.45132165806471</v>
+        <v>17.05186813003318</v>
       </c>
       <c r="D12">
-        <v>4.797536676528511</v>
+        <v>5.041985600317378</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.69888438633383</v>
+        <v>19.93146330584022</v>
       </c>
       <c r="G12">
-        <v>3.609717381255769</v>
+        <v>2.038630683273033</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>20.02423619242999</v>
+        <v>10.5007135996359</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.84599216176522</v>
+        <v>9.577996031225238</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.98481581573049</v>
+        <v>14.23940057661318</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.98922088156001</v>
+        <v>31.72213263445023</v>
       </c>
       <c r="C13">
-        <v>12.43556757763469</v>
+        <v>17.01641538733167</v>
       </c>
       <c r="D13">
-        <v>4.794555866106098</v>
+        <v>5.033611215283935</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.69789373201473</v>
+        <v>19.89213831617114</v>
       </c>
       <c r="G13">
-        <v>3.609832288108359</v>
+        <v>2.038978951262884</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>20.0322135971032</v>
+        <v>10.51234825398087</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.84316234562427</v>
+        <v>9.558893052332991</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.98820521946677</v>
+        <v>14.2225316386339</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.85932404767906</v>
+        <v>31.44281926569508</v>
       </c>
       <c r="C14">
-        <v>12.38403510964624</v>
+        <v>16.90033513499947</v>
       </c>
       <c r="D14">
-        <v>4.784817218431734</v>
+        <v>5.006211628922591</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.69489180742745</v>
+        <v>19.76430428872184</v>
       </c>
       <c r="G14">
-        <v>3.610208748395078</v>
+        <v>2.04011644346755</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>20.05838142143293</v>
+        <v>10.55111527021797</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.83398328328641</v>
+        <v>9.496515479793356</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.99943531361058</v>
+        <v>14.1681903973945</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.77933296050298</v>
+        <v>31.2706365295426</v>
       </c>
       <c r="C15">
-        <v>12.35235177884556</v>
+        <v>16.82887896246199</v>
       </c>
       <c r="D15">
-        <v>4.778838632903069</v>
+        <v>4.989360551249721</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.69322884982234</v>
+        <v>19.68632125137034</v>
       </c>
       <c r="G15">
-        <v>3.610440666924306</v>
+        <v>2.04081452857569</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>20.07452654278991</v>
+        <v>10.57548390772334</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.82839908475334</v>
+        <v>9.458247713836963</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.00644956844341</v>
+        <v>14.13541939758446</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.31448985257855</v>
+        <v>30.26705730590908</v>
       </c>
       <c r="C16">
-        <v>12.16901320662301</v>
+        <v>16.41400303715584</v>
       </c>
       <c r="D16">
-        <v>4.744377811671203</v>
+        <v>4.891762726245396</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>22.68639270603088</v>
+        <v>19.24438204284834</v>
       </c>
       <c r="G16">
-        <v>3.611790056683495</v>
+        <v>2.044836323929721</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>20.16883233384398</v>
+        <v>10.72425817447509</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.7969902105655</v>
+        <v>9.238066700814127</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.04871651721334</v>
+        <v>13.95543059759202</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.02365844987236</v>
+        <v>29.63625257075966</v>
       </c>
       <c r="C17">
-        <v>12.05499990635304</v>
+        <v>16.15471901251357</v>
       </c>
       <c r="D17">
-        <v>4.723064445431404</v>
+        <v>4.830983243744619</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>22.68460082807821</v>
+        <v>18.97775355901897</v>
       </c>
       <c r="G17">
-        <v>3.6126360717826</v>
+        <v>2.047323506004086</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.22827608331098</v>
+        <v>10.82323337306865</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.77825619341188</v>
+        <v>9.102241187653117</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.0764876716072</v>
+        <v>13.85189042898627</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.85433466166746</v>
+        <v>29.26783153000381</v>
       </c>
       <c r="C18">
-        <v>11.98887340075571</v>
+        <v>16.00384919306594</v>
       </c>
       <c r="D18">
-        <v>4.710744338112125</v>
+        <v>4.795697225026401</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>22.6844519938284</v>
+        <v>18.82607391120855</v>
       </c>
       <c r="G18">
-        <v>3.613129385427426</v>
+        <v>2.048761737983695</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.26305007813264</v>
+        <v>10.88282678239534</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.76767961851546</v>
+        <v>9.023857831778063</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.09313519639147</v>
+        <v>13.79482601086093</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.79665695011903</v>
+        <v>29.14212567870716</v>
       </c>
       <c r="C19">
-        <v>11.96639148635499</v>
+        <v>15.95247078683672</v>
       </c>
       <c r="D19">
-        <v>4.706562663782811</v>
+        <v>4.78369436633137</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>22.68455294956487</v>
+        <v>18.77500885265636</v>
       </c>
       <c r="G19">
-        <v>3.613297566667472</v>
+        <v>2.049250047666501</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.27492409534609</v>
+        <v>10.90344669096168</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.76413292560245</v>
+        <v>8.997275554470018</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.09888732743122</v>
+        <v>13.77592865278694</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.05483048887303</v>
+        <v>29.70398150358153</v>
       </c>
       <c r="C20">
-        <v>12.06719404147556</v>
+        <v>16.1825003708188</v>
       </c>
       <c r="D20">
-        <v>4.725339677515036</v>
+        <v>4.837487332162846</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>22.68470028967712</v>
+        <v>19.00596362462026</v>
       </c>
       <c r="G20">
-        <v>3.612545318140746</v>
+        <v>2.047057954911858</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20.22188778301895</v>
+        <v>10.81241777389672</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.78022994580971</v>
+        <v>9.116727351420126</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.07346154013379</v>
+        <v>13.8626539405797</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.89756675048416</v>
+        <v>31.52508841837236</v>
       </c>
       <c r="C21">
-        <v>12.39919616696612</v>
+        <v>16.93450449220829</v>
       </c>
       <c r="D21">
-        <v>4.787680496510363</v>
+        <v>5.014273758003389</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.69573690537129</v>
+        <v>19.80178590262312</v>
       </c>
       <c r="G21">
-        <v>3.610097896693592</v>
+        <v>2.039782057579668</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>20.05067099815607</v>
+        <v>10.53959766389719</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.83667144071622</v>
+        <v>9.514849796905327</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.99610851151917</v>
+        <v>14.18404431781736</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.42939290678308</v>
+        <v>32.66617351873965</v>
       </c>
       <c r="C22">
-        <v>12.61093360476079</v>
+        <v>17.41019558961669</v>
       </c>
       <c r="D22">
-        <v>4.827830919106247</v>
+        <v>5.126783595982942</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.71081671168256</v>
+        <v>20.33625613048227</v>
       </c>
       <c r="G22">
-        <v>3.608557746839216</v>
+        <v>2.035087671872563</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>19.94398609955871</v>
+        <v>10.38870531393295</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.87527734641153</v>
+        <v>9.772414752595578</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.951611612752</v>
+        <v>14.41702435679085</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.14731368190787</v>
+        <v>32.06161181968287</v>
       </c>
       <c r="C23">
-        <v>12.4984216249335</v>
+        <v>17.15776773494338</v>
       </c>
       <c r="D23">
-        <v>4.806458403814156</v>
+        <v>5.067017245689744</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.70204818047834</v>
+        <v>20.04971165472247</v>
       </c>
       <c r="G23">
-        <v>3.609374337430257</v>
+        <v>2.037587966070063</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>20.00044769299154</v>
+        <v>10.4665425962399</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.85451802172268</v>
+        <v>9.635201247146394</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.97480364452612</v>
+        <v>14.29054649194514</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.04074420767801</v>
+        <v>29.67337921161162</v>
       </c>
       <c r="C24">
-        <v>12.06168287159734</v>
+        <v>16.16994603375948</v>
       </c>
       <c r="D24">
-        <v>4.724311252516001</v>
+        <v>4.834547901049309</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.68465257795181</v>
+        <v>18.99320483658638</v>
       </c>
       <c r="G24">
-        <v>3.612586326276469</v>
+        <v>2.047177984571944</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20.22477406791016</v>
+        <v>10.81729916297528</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.77933700793666</v>
+        <v>9.11017907327679</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.07482753184679</v>
+        <v>13.85778009675651</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.76955342246793</v>
+        <v>26.88282800652301</v>
       </c>
       <c r="C25">
-        <v>11.56985146873197</v>
+        <v>15.03836874634059</v>
       </c>
       <c r="D25">
-        <v>4.633391455367724</v>
+        <v>4.571380352829701</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>22.69957569010398</v>
+        <v>17.91817120901345</v>
       </c>
       <c r="G25">
-        <v>3.616307663566808</v>
+        <v>2.057819372366417</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>20.48904664897264</v>
+        <v>11.2959025904855</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.70586589240257</v>
+        <v>8.534208087071848</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.20846424334196</v>
+        <v>13.48548780504709</v>
       </c>
     </row>
   </sheetData>
